--- a/ja/application_framework/application_framework/handlers/images/HttpMessagingErrorHandler/images.xlsx
+++ b/ja/application_framework/application_framework/handlers/images/HttpMessagingErrorHandler/images.xlsx
@@ -1,20 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Github\nablarch-document\ja\application_framework\application_framework\handlers\images\HttpMessagingErrorHandler\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAA4FA5-A9A1-4861-8F99-3BC21F42C9D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="20700" windowHeight="11760"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -68,6 +84,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -82,20 +101,26 @@
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>110066</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="角丸四角形 18"/>
+        <xdr:cNvPr id="19" name="角丸四角形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="800100" y="238126"/>
-          <a:ext cx="2800350" cy="5419724"/>
+          <a:off x="745067" y="236009"/>
+          <a:ext cx="3462866" cy="5351991"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -161,20 +186,26 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>160866</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="角丸四角形 20"/>
+        <xdr:cNvPr id="21" name="角丸四角形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1200151" y="857250"/>
-          <a:ext cx="2000250" cy="514350"/>
+          <a:off x="1117601" y="846667"/>
+          <a:ext cx="2582332" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -219,26 +250,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>91650</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>154517</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>91650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="角丸四角形 23"/>
+        <xdr:cNvPr id="24" name="角丸四角形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4000499" y="857249"/>
-          <a:ext cx="1600200" cy="514351"/>
+          <a:off x="4748317" y="831850"/>
+          <a:ext cx="1490133" cy="505885"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -277,29 +314,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>160866</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:rowOff>68793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>91650</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>84667</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="直線矢印コネクタ 24"/>
+        <xdr:cNvPr id="25" name="直線矢印コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="21" idx="3"/>
           <a:endCxn id="24" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3200401" y="1114425"/>
-          <a:ext cx="800098" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="3699933" y="1084793"/>
+          <a:ext cx="1048384" cy="15874"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -327,20 +370,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>173111</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>173567</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="直線矢印コネクタ 26"/>
+        <xdr:cNvPr id="27" name="直線矢印コネクタ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="21" idx="2"/>
           <a:endCxn id="22" idx="0"/>
@@ -348,8 +397,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2200275" y="1371600"/>
-          <a:ext cx="1" cy="342900"/>
+          <a:off x="2408311" y="1354667"/>
+          <a:ext cx="456" cy="338666"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -378,25 +427,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>160864</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="角丸四角形 27"/>
+        <xdr:cNvPr id="28" name="角丸四角形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1200151" y="2743201"/>
-          <a:ext cx="2000249" cy="685800"/>
+          <a:off x="1117600" y="2709334"/>
+          <a:ext cx="2582331" cy="677334"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -490,25 +545,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:colOff>184784</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>161438</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="フローチャート : 判断 21"/>
+        <xdr:cNvPr id="22" name="フローチャート : 判断 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1200149" y="1714500"/>
-          <a:ext cx="2000251" cy="685800"/>
+          <a:off x="1116117" y="1693333"/>
+          <a:ext cx="2584388" cy="677334"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -547,28 +608,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>173566</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>173566</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="28" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2200275" y="2400300"/>
-          <a:ext cx="1" cy="342901"/>
+        <a:xfrm flipH="1">
+          <a:off x="2408766" y="2370667"/>
+          <a:ext cx="0" cy="338667"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -596,26 +663,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>110068</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>177801</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2200275" y="2400300"/>
-          <a:ext cx="400050" cy="342900"/>
+          <a:off x="2599267" y="2311401"/>
+          <a:ext cx="372534" cy="338666"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -669,7 +742,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -716,26 +795,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>186266</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>160865</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="フローチャート : 判断 17"/>
+        <xdr:cNvPr id="18" name="フローチャート : 判断 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1200150" y="3771900"/>
-          <a:ext cx="2000251" cy="685800"/>
+          <a:off x="1117599" y="3725333"/>
+          <a:ext cx="2582333" cy="677334"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -774,29 +859,36 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>173566</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>173566</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="直線矢印コネクタ 19"/>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="28" idx="2"/>
           <a:endCxn id="18" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2200276" y="3429001"/>
-          <a:ext cx="0" cy="342899"/>
+          <a:off x="2408766" y="3386668"/>
+          <a:ext cx="0" cy="338665"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -825,32 +917,39 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>200023</xdr:colOff>
+      <xdr:colOff>184784</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:colOff>186266</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="直線矢印コネクタ 22"/>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="22" idx="1"/>
           <a:endCxn id="18" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="1200148" y="2057400"/>
-          <a:ext cx="1" cy="2057400"/>
+          <a:off x="1116117" y="2032000"/>
+          <a:ext cx="1482" cy="2032000"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -22860000000"/>
+            <a:gd name="adj1" fmla="val -15425101"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -882,20 +981,26 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>158809</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="角丸四角形 28"/>
+        <xdr:cNvPr id="29" name="角丸四角形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1200150" y="4800600"/>
-          <a:ext cx="2000249" cy="685800"/>
+          <a:off x="1117600" y="4741333"/>
+          <a:ext cx="2580276" cy="677334"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -964,29 +1069,36 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>172538</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>173566</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直線矢印コネクタ 29"/>
+        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="18" idx="2"/>
           <a:endCxn id="29" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2200275" y="4457700"/>
-          <a:ext cx="1" cy="342900"/>
+          <a:off x="2407738" y="4402667"/>
+          <a:ext cx="1028" cy="338666"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1027,7 +1139,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="テキスト ボックス 31"/>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1072,11 +1190,206 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>91650</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>86784</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>91650</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>84669</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="角丸四角形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C538ACB-D3D9-4797-9FB6-CB637B4D2771}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4748317" y="3812117"/>
+          <a:ext cx="1490133" cy="505885"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="800" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>次の処理へ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="400" baseline="0">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>160865</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>91650</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B059DAB-F242-44AA-B3EB-2EFFB8FB1279}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="3"/>
+          <a:endCxn id="26" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3699932" y="4064000"/>
+          <a:ext cx="1048385" cy="1060"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>59267</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>50801</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>59268</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="テキスト ボックス 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{936E4E7F-2DCD-462B-A96D-B5B2416FE865}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3598334" y="4114801"/>
+          <a:ext cx="372534" cy="338666"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>有</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1118,7 +1431,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1151,9 +1464,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1186,6 +1516,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1361,12 +1708,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ja/application_framework/application_framework/handlers/images/HttpMessagingErrorHandler/images.xlsx
+++ b/ja/application_framework/application_framework/handlers/images/HttpMessagingErrorHandler/images.xlsx
@@ -1,36 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Github\nablarch-document\ja\application_framework\application_framework\handlers\images\HttpMessagingErrorHandler\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAA4FA5-A9A1-4861-8F99-3BC21F42C9D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="20700" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -84,9 +68,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -101,26 +82,20 @@
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>110066</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="角丸四角形 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="19" name="角丸四角形 18"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="745067" y="236009"/>
-          <a:ext cx="3462866" cy="5351991"/>
+          <a:off x="800100" y="238126"/>
+          <a:ext cx="2800350" cy="5419724"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -186,26 +161,20 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>160866</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="角丸四角形 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="21" name="角丸四角形 20"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1117601" y="846667"/>
-          <a:ext cx="2582332" cy="508000"/>
+          <a:off x="1200151" y="857250"/>
+          <a:ext cx="2000250" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -250,32 +219,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>91650</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>154517</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>91650</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>152402</xdr:rowOff>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="角丸四角形 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="24" name="角丸四角形 23"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4748317" y="831850"/>
-          <a:ext cx="1490133" cy="505885"/>
+          <a:off x="4000499" y="857249"/>
+          <a:ext cx="1600200" cy="514351"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -314,35 +277,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>160866</xdr:colOff>
+      <xdr:colOff>200024</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>68793</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>91650</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>84667</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="直線矢印コネクタ 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="25" name="直線矢印コネクタ 24"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="21" idx="3"/>
           <a:endCxn id="24" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3699933" y="1084793"/>
-          <a:ext cx="1048384" cy="15874"/>
+        <a:xfrm>
+          <a:off x="3200401" y="1114425"/>
+          <a:ext cx="800098" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -370,26 +327,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>173111</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>173567</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="直線矢印コネクタ 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="27" name="直線矢印コネクタ 26"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="21" idx="2"/>
           <a:endCxn id="22" idx="0"/>
@@ -397,8 +348,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2408311" y="1354667"/>
-          <a:ext cx="456" cy="338666"/>
+          <a:off x="2200275" y="1371600"/>
+          <a:ext cx="1" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -427,31 +378,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>160864</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="角丸四角形 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="28" name="角丸四角形 27"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1117600" y="2709334"/>
-          <a:ext cx="2582331" cy="677334"/>
+          <a:off x="1200151" y="2743201"/>
+          <a:ext cx="2000249" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -545,31 +490,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>184784</xdr:colOff>
+      <xdr:colOff>200024</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>161438</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="フローチャート : 判断 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="22" name="フローチャート : 判断 21"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1116117" y="1693333"/>
-          <a:ext cx="2584388" cy="677334"/>
+          <a:off x="1200149" y="1714500"/>
+          <a:ext cx="2000251" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -608,34 +547,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>173566</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>173566</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="28" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2408766" y="2370667"/>
-          <a:ext cx="0" cy="338667"/>
+        <a:xfrm>
+          <a:off x="2200275" y="2400300"/>
+          <a:ext cx="1" cy="342901"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -663,32 +596,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>110068</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>177801</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>110067</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="テキスト ボックス 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2599267" y="2311401"/>
-          <a:ext cx="372534" cy="338666"/>
+          <a:off x="2200275" y="2400300"/>
+          <a:ext cx="400050" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -742,13 +669,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="テキスト ボックス 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -795,32 +716,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>186266</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>160865</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="フローチャート : 判断 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="18" name="フローチャート : 判断 17"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1117599" y="3725333"/>
-          <a:ext cx="2582333" cy="677334"/>
+          <a:off x="1200150" y="3771900"/>
+          <a:ext cx="2000251" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -859,36 +774,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>173566</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>173566</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19"/>
         <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
           <a:stCxn id="28" idx="2"/>
           <a:endCxn id="18" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2408766" y="3386668"/>
-          <a:ext cx="0" cy="338665"/>
+          <a:off x="2200276" y="3429001"/>
+          <a:ext cx="0" cy="342899"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -917,39 +825,32 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>184784</xdr:colOff>
+      <xdr:colOff>200023</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>186266</xdr:colOff>
+      <xdr:colOff>200024</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22"/>
         <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
           <a:stCxn id="22" idx="1"/>
           <a:endCxn id="18" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="1116117" y="2032000"/>
-          <a:ext cx="1482" cy="2032000"/>
+          <a:off x="1200148" y="2057400"/>
+          <a:ext cx="1" cy="2057400"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -15425101"/>
+            <a:gd name="adj1" fmla="val -22860000000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -981,26 +882,20 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>158809</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="角丸四角形 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="29" name="角丸四角形 28"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1117600" y="4741333"/>
-          <a:ext cx="2580276" cy="677334"/>
+          <a:off x="1200150" y="4800600"/>
+          <a:ext cx="2000249" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1069,36 +964,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>172538</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>173566</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="30" name="直線矢印コネクタ 29"/>
         <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
           <a:stCxn id="18" idx="2"/>
           <a:endCxn id="29" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2407738" y="4402667"/>
-          <a:ext cx="1028" cy="338666"/>
+          <a:off x="2200275" y="4457700"/>
+          <a:ext cx="1" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1139,13 +1027,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="テキスト ボックス 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1190,206 +1072,11 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>91650</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>86784</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>91650</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>84669</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="角丸四角形 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C538ACB-D3D9-4797-9FB6-CB637B4D2771}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4748317" y="3812117"/>
-          <a:ext cx="1490133" cy="505885"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="800" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>次の処理へ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="400" baseline="0">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>160865</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>91650</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>1060</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B059DAB-F242-44AA-B3EB-2EFFB8FB1279}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="18" idx="3"/>
-          <a:endCxn id="26" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3699932" y="4064000"/>
-          <a:ext cx="1048385" cy="1060"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>59267</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>50801</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>59268</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="テキスト ボックス 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{936E4E7F-2DCD-462B-A96D-B5B2416FE865}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3598334" y="4114801"/>
-          <a:ext cx="372534" cy="338666"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>有</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1431,7 +1118,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1464,26 +1151,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1516,23 +1186,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1708,12 +1361,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ja/application_framework/application_framework/handlers/images/HttpMessagingErrorHandler/images.xlsx
+++ b/ja/application_framework/application_framework/handlers/images/HttpMessagingErrorHandler/images.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Github\nablarch-document\ja\application_framework\application_framework\handlers\images\HttpMessagingErrorHandler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tie303995\git\github\nablarch\nablarch-document\ja\application_framework\application_framework\handlers\images\HttpMessagingErrorHandler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAA4FA5-A9A1-4861-8F99-3BC21F42C9D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8109F23-9798-4F4C-A9F1-4D45DC9812A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4050" yWindow="1005" windowWidth="28800" windowHeight="17490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -101,8 +101,8 @@
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>110066</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -119,8 +119,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="745067" y="236009"/>
-          <a:ext cx="3462866" cy="5351991"/>
+          <a:off x="804333" y="236009"/>
+          <a:ext cx="5090584" cy="5351991"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -250,14 +250,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>91650</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>112820</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>154517</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>91650</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>112820</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
     </xdr:to>
@@ -274,8 +274,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4748317" y="831850"/>
-          <a:ext cx="1490133" cy="505885"/>
+          <a:off x="6145320" y="831850"/>
+          <a:ext cx="1608667" cy="505885"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -320,8 +320,8 @@
       <xdr:rowOff>68793</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>91650</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>112820</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>84667</xdr:rowOff>
     </xdr:to>
@@ -341,8 +341,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3699933" y="1084793"/>
-          <a:ext cx="1048384" cy="15874"/>
+          <a:off x="3981449" y="1084793"/>
+          <a:ext cx="2163871" cy="15874"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1192,23 +1192,146 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>91650</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>86784</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>91650</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>84669</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>160865</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>158756</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B059DAB-F242-44AA-B3EB-2EFFB8FB1279}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="18" idx="3"/>
+          <a:endCxn id="34" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3981448" y="4064000"/>
+          <a:ext cx="400058" cy="2"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>59267</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>50801</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>59268</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="角丸四角形 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C538ACB-D3D9-4797-9FB6-CB637B4D2771}"/>
+        <xdr:cNvPr id="33" name="テキスト ボックス 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{936E4E7F-2DCD-462B-A96D-B5B2416FE865}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3598334" y="4114801"/>
+          <a:ext cx="372534" cy="338666"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>有</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>158756</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="角丸四角形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7499DEC5-516C-47AA-94D5-3A361A23AF23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1216,8 +1339,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4748317" y="3812117"/>
-          <a:ext cx="1490133" cy="505885"/>
+          <a:off x="4381506" y="3725335"/>
+          <a:ext cx="1375827" cy="677334"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1227,14 +1350,14 @@
         <a:lnRef idx="1">
           <a:schemeClr val="accent6"/>
         </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -1243,143 +1366,18 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="800" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="800" baseline="0">
               <a:effectLst/>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>次の処理へ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="400" baseline="0">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>処理無し</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="800" baseline="0">
+            <a:effectLst/>
+            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
             <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>160865</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>91650</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>1060</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B059DAB-F242-44AA-B3EB-2EFFB8FB1279}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="18" idx="3"/>
-          <a:endCxn id="26" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3699932" y="4064000"/>
-          <a:ext cx="1048385" cy="1060"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>59267</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>50801</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>59268</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="テキスト ボックス 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{936E4E7F-2DCD-462B-A96D-B5B2416FE865}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3598334" y="4114801"/>
-          <a:ext cx="372534" cy="338666"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>有</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1711,9 +1709,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ja/application_framework/application_framework/handlers/images/HttpMessagingErrorHandler/images.xlsx
+++ b/ja/application_framework/application_framework/handlers/images/HttpMessagingErrorHandler/images.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tie303995\git\github\nablarch\nablarch-document\ja\application_framework\application_framework\handlers\images\HttpMessagingErrorHandler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8109F23-9798-4F4C-A9F1-4D45DC9812A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D049D59F-B7FB-44B0-BBA6-EF5FB277EC03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="1005" windowWidth="28800" windowHeight="17490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -1371,7 +1371,7 @@
               <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>処理無し</a:t>
+            <a:t>何もしない</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="800" baseline="0">
             <a:effectLst/>

--- a/ja/application_framework/application_framework/handlers/images/HttpMessagingErrorHandler/images.xlsx
+++ b/ja/application_framework/application_framework/handlers/images/HttpMessagingErrorHandler/images.xlsx
@@ -1,20 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tie303995\git\github\nablarch\nablarch-document\ja\application_framework\application_framework\handlers\images\HttpMessagingErrorHandler\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D049D59F-B7FB-44B0-BBA6-EF5FB277EC03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="20700" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -68,6 +84,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -82,20 +101,26 @@
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="角丸四角形 18"/>
+        <xdr:cNvPr id="19" name="角丸四角形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="800100" y="238126"/>
-          <a:ext cx="2800350" cy="5419724"/>
+          <a:off x="804333" y="236009"/>
+          <a:ext cx="5090584" cy="5351991"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -161,20 +186,26 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>160866</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="角丸四角形 20"/>
+        <xdr:cNvPr id="21" name="角丸四角形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1200151" y="857250"/>
-          <a:ext cx="2000250" cy="514350"/>
+          <a:off x="1117601" y="846667"/>
+          <a:ext cx="2582332" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -219,26 +250,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>112820</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>154517</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>112820</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="角丸四角形 23"/>
+        <xdr:cNvPr id="24" name="角丸四角形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4000499" y="857249"/>
-          <a:ext cx="1600200" cy="514351"/>
+          <a:off x="6145320" y="831850"/>
+          <a:ext cx="1608667" cy="505885"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -277,29 +314,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>160866</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:rowOff>68793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>112820</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>84667</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="直線矢印コネクタ 24"/>
+        <xdr:cNvPr id="25" name="直線矢印コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="21" idx="3"/>
           <a:endCxn id="24" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3200401" y="1114425"/>
-          <a:ext cx="800098" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="3981449" y="1084793"/>
+          <a:ext cx="2163871" cy="15874"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -327,20 +370,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>173111</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>173567</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="直線矢印コネクタ 26"/>
+        <xdr:cNvPr id="27" name="直線矢印コネクタ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="21" idx="2"/>
           <a:endCxn id="22" idx="0"/>
@@ -348,8 +397,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2200275" y="1371600"/>
-          <a:ext cx="1" cy="342900"/>
+          <a:off x="2408311" y="1354667"/>
+          <a:ext cx="456" cy="338666"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -378,25 +427,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>160864</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="角丸四角形 27"/>
+        <xdr:cNvPr id="28" name="角丸四角形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1200151" y="2743201"/>
-          <a:ext cx="2000249" cy="685800"/>
+          <a:off x="1117600" y="2709334"/>
+          <a:ext cx="2582331" cy="677334"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -490,25 +545,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:colOff>184784</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>161438</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="フローチャート : 判断 21"/>
+        <xdr:cNvPr id="22" name="フローチャート : 判断 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1200149" y="1714500"/>
-          <a:ext cx="2000251" cy="685800"/>
+          <a:off x="1116117" y="1693333"/>
+          <a:ext cx="2584388" cy="677334"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -547,28 +608,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>173566</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>173566</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="28" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2200275" y="2400300"/>
-          <a:ext cx="1" cy="342901"/>
+        <a:xfrm flipH="1">
+          <a:off x="2408766" y="2370667"/>
+          <a:ext cx="0" cy="338667"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -596,26 +663,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>110068</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>177801</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2200275" y="2400300"/>
-          <a:ext cx="400050" cy="342900"/>
+          <a:off x="2599267" y="2311401"/>
+          <a:ext cx="372534" cy="338666"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -669,7 +742,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -716,26 +795,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>186266</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>160865</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="フローチャート : 判断 17"/>
+        <xdr:cNvPr id="18" name="フローチャート : 判断 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1200150" y="3771900"/>
-          <a:ext cx="2000251" cy="685800"/>
+          <a:off x="1117599" y="3725333"/>
+          <a:ext cx="2582333" cy="677334"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -774,29 +859,36 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>173566</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>173566</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="直線矢印コネクタ 19"/>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="28" idx="2"/>
           <a:endCxn id="18" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2200276" y="3429001"/>
-          <a:ext cx="0" cy="342899"/>
+          <a:off x="2408766" y="3386668"/>
+          <a:ext cx="0" cy="338665"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -825,32 +917,39 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>200023</xdr:colOff>
+      <xdr:colOff>184784</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:colOff>186266</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="直線矢印コネクタ 22"/>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="22" idx="1"/>
           <a:endCxn id="18" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="1200148" y="2057400"/>
-          <a:ext cx="1" cy="2057400"/>
+          <a:off x="1116117" y="2032000"/>
+          <a:ext cx="1482" cy="2032000"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -22860000000"/>
+            <a:gd name="adj1" fmla="val -15425101"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -882,20 +981,26 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>158809</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="角丸四角形 28"/>
+        <xdr:cNvPr id="29" name="角丸四角形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1200150" y="4800600"/>
-          <a:ext cx="2000249" cy="685800"/>
+          <a:off x="1117600" y="4741333"/>
+          <a:ext cx="2580276" cy="677334"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -964,29 +1069,36 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>172538</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>173566</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直線矢印コネクタ 29"/>
+        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="18" idx="2"/>
           <a:endCxn id="29" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2200275" y="4457700"/>
-          <a:ext cx="1" cy="342900"/>
+          <a:off x="2407738" y="4402667"/>
+          <a:ext cx="1028" cy="338666"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1027,7 +1139,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="テキスト ボックス 31"/>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1072,11 +1190,204 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>160865</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>158756</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B059DAB-F242-44AA-B3EB-2EFFB8FB1279}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="18" idx="3"/>
+          <a:endCxn id="34" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3981448" y="4064000"/>
+          <a:ext cx="400058" cy="2"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>59267</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>50801</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>59268</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="テキスト ボックス 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{936E4E7F-2DCD-462B-A96D-B5B2416FE865}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3598334" y="4114801"/>
+          <a:ext cx="372534" cy="338666"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>有</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>158756</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="角丸四角形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7499DEC5-516C-47AA-94D5-3A361A23AF23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381506" y="3725335"/>
+          <a:ext cx="1375827" cy="677334"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="800" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>何もしない</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="800" baseline="0">
+            <a:effectLst/>
+            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1118,7 +1429,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1151,9 +1462,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1186,6 +1514,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1361,10 +1706,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
